--- a/data/trans_bre/P20-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P20-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P20-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P20-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,63%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>5,17; 15,36</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 17,21</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-9,63; 4,87</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-14,95; -0,07</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,92; 346,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,84; 100,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,3; 12,26</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,19%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,01; 6,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 6,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 5,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,42; 2,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,35; 301,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,51; 134,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,32; 149,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,73; 63,94</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,81%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,67; 5,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 5,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 5,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 4,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,67; 197,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,05; 110,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,4; 144,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,38; 109,38</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,28%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 5,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 6,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 5,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,21; 1,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,73; 127,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,64; 128,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,59; 163,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,26; 47,91</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,03%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,47%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,32%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 4,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,81; 5,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,44; 6,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 2,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,82; 124,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,82; 131,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,21; 141,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,12; 43,27</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,07%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,04; 4,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,08; 4,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,66; 4,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 1,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,22; 120,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,37; 87,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,11; 93,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,13; 30,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P20-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,21</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,83</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>175,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>99,94%</t>
+          <t>63,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-25,3%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-52,63%</t>
+          <t>-10,53%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,17; 15,36</t>
+          <t>2,3; 6,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 17,21</t>
+          <t>1,09; 7,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 4,87</t>
+          <t>-1,2; 4,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,95; -0,07</t>
+          <t>-3,32; 1,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,51; 369,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 346,17</t>
+          <t>11,84; 131,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-73,84; 100,95</t>
+          <t>-19,67; 95,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-80,3; 12,26</t>
+          <t>-39,36; 29,93</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>113,78%</t>
+          <t>100,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>55,7%</t>
+          <t>54,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>51,93%</t>
+          <t>65,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>66,09%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 6,0</t>
+          <t>1,67; 5,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 6,86</t>
+          <t>0,83; 5,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 5,09</t>
+          <t>0,75; 5,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 2,94</t>
+          <t>0,51; 5,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,35; 301,26</t>
+          <t>35,67; 197,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 134,17</t>
+          <t>12,05; 110,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 149,99</t>
+          <t>11,4; 144,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,73; 63,94</t>
+          <t>10,93; 267,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>100,62%</t>
+          <t>51,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>54,28%</t>
+          <t>53,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>65,28%</t>
+          <t>62,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,81%</t>
+          <t>-17,17%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 5,95</t>
+          <t>-0,2; 5,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,67</t>
+          <t>0,7; 6,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 5,06</t>
+          <t>0,19; 5,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 4,05</t>
+          <t>-4,23; 1,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,67; 197,36</t>
+          <t>-3,73; 127,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,05; 110,48</t>
+          <t>8,64; 128,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,4; 144,62</t>
+          <t>2,59; 163,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 109,38</t>
+          <t>-66,86; 32,36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>51,04%</t>
+          <t>46,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>53,76%</t>
+          <t>54,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>62,78%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,28%</t>
+          <t>1,05%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 5,55</t>
+          <t>0,1; 4,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,31</t>
+          <t>0,81; 5,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 5,21</t>
+          <t>1,44; 6,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,9</t>
+          <t>-2,04; 2,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 127,13</t>
+          <t>1,82; 124,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,64; 128,25</t>
+          <t>11,82; 131,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 163,32</t>
+          <t>20,21; 141,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,26; 47,91</t>
+          <t>-26,6; 41,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>46,03%</t>
+          <t>78,47%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>54,47%</t>
+          <t>55,82%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>74,43%</t>
+          <t>60,11%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>9,01%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 4,35</t>
+          <t>2,04; 4,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,57</t>
+          <t>2,08; 4,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 6,14</t>
+          <t>1,66; 4,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,36</t>
+          <t>-0,88; 1,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 124,18</t>
+          <t>44,22; 120,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,82; 131,03</t>
+          <t>31,37; 87,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,21; 141,92</t>
+          <t>30,11; 93,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 43,27</t>
+          <t>-14,02; 42,13</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,24</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,41</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>78,47%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>55,82%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>60,11%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>7,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,04; 4,39</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 4,7</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,66; 4,03</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 1,55</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>44,22; 120,32</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>31,37; 87,04</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>30,11; 93,92</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-11,13; 30,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P20-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P20-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 6,66</t>
+          <t>2,28; 6,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 7,32</t>
+          <t>1,21; 7,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 4,09</t>
+          <t>-1,3; 4,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,68</t>
+          <t>-3,3; 1,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>61,51; 369,0</t>
+          <t>60,71; 365,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,84; 131,34</t>
+          <t>12,21; 139,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 95,26</t>
+          <t>-19,41; 105,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,36; 29,93</t>
+          <t>-39,07; 34,76</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 5,95</t>
+          <t>1,8; 6,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,67</t>
+          <t>0,85; 5,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 5,06</t>
+          <t>0,77; 5,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,67</t>
+          <t>0,59; 5,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,67; 197,36</t>
+          <t>39,71; 209,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,05; 110,48</t>
+          <t>10,96; 113,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,4; 144,62</t>
+          <t>13,63; 141,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,93; 267,02</t>
+          <t>8,44; 213,28</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 5,55</t>
+          <t>0,01; 5,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,31</t>
+          <t>0,26; 6,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 5,21</t>
+          <t>0,41; 5,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 1,36</t>
+          <t>-4,03; 1,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 127,13</t>
+          <t>-1,79; 133,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,64; 128,25</t>
+          <t>1,99; 121,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 163,32</t>
+          <t>5,63; 157,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-66,86; 32,36</t>
+          <t>-61,56; 30,6</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 4,35</t>
+          <t>0,03; 4,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,57</t>
+          <t>0,88; 5,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 6,14</t>
+          <t>1,59; 6,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,17</t>
+          <t>-2,16; 2,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 124,18</t>
+          <t>0,28; 111,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 131,03</t>
+          <t>12,09; 125,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,21; 141,92</t>
+          <t>24,95; 142,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,6; 41,54</t>
+          <t>-28,49; 35,26</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,39</t>
+          <t>2,16; 4,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,7</t>
+          <t>1,98; 4,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,03</t>
+          <t>1,7; 4,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,93</t>
+          <t>-0,81; 1,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,22; 120,32</t>
+          <t>44,27; 120,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,37; 87,04</t>
+          <t>29,09; 87,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,11; 93,92</t>
+          <t>33,15; 95,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 42,13</t>
+          <t>-13,47; 41,27</t>
         </is>
       </c>
     </row>
